--- a/database_para.xlsx
+++ b/database_para.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zijue\Documents\Porosity_big\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61452\Desktop\Porosity_big\Porosity-Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2565E470-A1B1-4215-8C8A-F63D3E33C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501DE8E9-D1E8-4A47-A717-02E33EB0C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>30X samples binary</t>
   </si>
@@ -236,6 +236,51 @@
   </si>
   <si>
     <t>3s1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
   </si>
 </sst>
 </file>
@@ -292,19 +337,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -587,1103 +625,1374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1200</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>280</v>
       </c>
-      <c r="D3" s="3">
-        <v>140</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E21" si="0">C3/(B3*0.03*D3*0.001)</f>
+      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E17" si="0">C3/(B3*0.03*D3*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1800</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>280</v>
       </c>
-      <c r="D4" s="3">
-        <v>140</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>366.6</v>
       </c>
-      <c r="D5" s="3">
-        <v>140</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="1">
+        <v>140</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>58.190476190476197</v>
       </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1500</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>197.12</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>34.823683261183255</v>
       </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>600</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>280</v>
       </c>
-      <c r="D7" s="3">
-        <v>140</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>111.11111111111111</v>
       </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>900</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>193.4</v>
       </c>
-      <c r="D8" s="3">
-        <v>140</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="1">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>51.164021164021165</v>
       </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>900</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>251.1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>82.88</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>112.21042471042472</v>
       </c>
-      <c r="F9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>193.4</v>
       </c>
-      <c r="D10" s="3">
-        <v>140</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="1">
+        <v>140</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>30.698412698412699</v>
       </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>1500</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>251.1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>82.88</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>67.326254826254825</v>
       </c>
-      <c r="F11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>900</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>366.6</v>
       </c>
-      <c r="D12" s="3">
-        <v>140</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="1">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>96.984126984126988</v>
       </c>
-      <c r="F12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>1200</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>337.7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>82.88</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>113.1823788073788</v>
       </c>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>900</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>197.12</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>58.039472101972102</v>
       </c>
-      <c r="F14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>222.3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>197.12</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>31.326095779220783</v>
       </c>
-      <c r="F15" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>1200</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="3">
-        <v>140</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>1200</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>280</v>
       </c>
-      <c r="D17" s="3">
-        <v>140</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7"/>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>280</v>
+      </c>
+      <c r="D18" s="1">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C19" s="1">
+        <v>280</v>
+      </c>
+      <c r="D19" s="1">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>140</v>
+      </c>
+      <c r="E20" s="1">
+        <v>58.190476189999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>34.823683260000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1">
+        <v>600</v>
+      </c>
+      <c r="C22" s="1">
+        <v>280</v>
+      </c>
+      <c r="D22" s="1">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1">
+        <v>111.1111111</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1">
+        <v>900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>140</v>
+      </c>
+      <c r="E23" s="1">
+        <v>51.164021159999997</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1">
+        <v>900</v>
+      </c>
+      <c r="C24" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E24" s="1">
+        <v>112.2104247</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>140</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30.698412699999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E26" s="1">
+        <v>67.326254829999996</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1">
+        <v>900</v>
+      </c>
+      <c r="C27" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1">
+        <v>96.984126979999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C28" s="1">
+        <v>337.7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E28" s="1">
+        <v>113.1823788</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1">
+        <v>900</v>
+      </c>
+      <c r="C29" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>58.039472099999998</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C30" s="1">
+        <v>222.3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>31.326095779999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B35" s="1">
         <v>1000</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C35" s="1">
         <v>250</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D35" s="1">
         <v>100</v>
       </c>
-      <c r="E22" s="7">
-        <f>C22/(B22*0.03*D22*0.001)</f>
+      <c r="E35" s="1">
+        <f>C35/(B35*0.03*D35*0.001)</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="F22" s="2">
-        <v>30</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B36" s="1">
         <v>1500</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C36" s="1">
         <v>250</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D36" s="1">
         <v>100</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" ref="E23:E37" si="1">C23/(B23*0.03*D23*0.001)</f>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36:E50" si="1">C36/(B36*0.03*D36*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F23" s="2">
-        <v>30</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B37" s="1">
         <v>600</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C37" s="1">
         <v>250</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D37" s="1">
         <v>100</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>138.88888888888889</v>
       </c>
-      <c r="F24" s="2">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B38" s="1">
         <v>800</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C38" s="1">
         <v>300</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D38" s="1">
         <v>100</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B39" s="1">
         <v>800</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C39" s="1">
         <v>200</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D39" s="1">
         <v>100</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="F26" s="2">
-        <v>30</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B40" s="1">
         <v>1000</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C40" s="1">
         <v>300</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D40" s="1">
         <v>80</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F27" s="2">
-        <v>30</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B41" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C41" s="1">
         <v>300</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D41" s="1">
         <v>120</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="F28" s="2">
-        <v>30</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B42" s="1">
         <v>1500</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C42" s="1">
         <v>200</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D42" s="1">
         <v>120</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F29" s="2">
-        <v>30</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
         <v>2500</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C43" s="1">
         <v>150</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D43" s="1">
         <v>200</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F30" s="2">
-        <v>30</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B44" s="1">
         <v>2500</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C44" s="1">
         <v>100</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D44" s="1">
         <v>200</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F31" s="2">
-        <v>30</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B45" s="1">
         <v>2000</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C45" s="1">
         <v>200</v>
       </c>
-      <c r="D32" s="6">
-        <v>140</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D45" s="1">
+        <v>140</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F32" s="2">
-        <v>30</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B46" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C46" s="1">
         <v>100</v>
       </c>
-      <c r="D33" s="6">
-        <v>140</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D46" s="1">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>11.904761904761905</v>
       </c>
-      <c r="F33" s="2">
-        <v>30</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B47" s="1">
         <v>1500</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C47" s="1">
         <v>150</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D47" s="1">
         <v>220</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>15.15151515151515</v>
       </c>
-      <c r="F34" s="2">
-        <v>30</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B48" s="1">
         <v>1500</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C48" s="1">
         <v>150</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D48" s="1">
         <v>240</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E48" s="1">
         <f t="shared" si="1"/>
         <v>13.888888888888888</v>
       </c>
-      <c r="F35" s="2">
-        <v>30</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B49" s="1">
         <v>1800</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C49" s="1">
         <v>200</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D49" s="1">
         <v>220</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E49" s="1">
         <f t="shared" si="1"/>
         <v>16.835016835016834</v>
       </c>
-      <c r="F36" s="2">
-        <v>30</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B50" s="1">
         <v>1800</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C50" s="1">
         <v>100</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D50" s="1">
         <v>220</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E50" s="1">
         <f t="shared" si="1"/>
         <v>8.4175084175084169</v>
       </c>
-      <c r="F37" s="2">
-        <v>30</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B54" s="2">
         <v>600</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C54" s="2">
         <v>250</v>
       </c>
-      <c r="D41" s="11">
-        <v>140</v>
-      </c>
-      <c r="E41" s="10">
-        <f>C41/(B41*0.03*D41*0.001)</f>
+      <c r="D54" s="2">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1">
+        <f>C54/(B54*0.03*D54*0.001)</f>
         <v>99.206349206349202</v>
       </c>
-      <c r="F41" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="F54" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B55" s="2">
         <v>600</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C55" s="2">
         <v>300</v>
       </c>
-      <c r="D42" s="11">
-        <v>140</v>
-      </c>
-      <c r="E42" s="10">
-        <f t="shared" ref="E42:E58" si="2">C42/(B42*0.03*D42*0.001)</f>
+      <c r="D55" s="2">
+        <v>140</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" ref="E55:E71" si="2">C55/(B55*0.03*D55*0.001)</f>
         <v>119.04761904761905</v>
       </c>
-      <c r="F42" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="F55" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B56" s="2">
         <v>600</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C56" s="2">
         <v>300</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D56" s="2">
         <v>100</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E56" s="1">
         <f t="shared" si="2"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="F43" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="F56" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B57" s="2">
         <v>700</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C57" s="2">
         <v>292</v>
       </c>
-      <c r="D44" s="11">
-        <v>140</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D57" s="2">
+        <v>140</v>
+      </c>
+      <c r="E57" s="1">
         <f t="shared" si="2"/>
         <v>99.319727891156461</v>
       </c>
-      <c r="F44" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="F57" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B58" s="5">
         <v>1500</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C58" s="5">
         <v>300</v>
       </c>
-      <c r="D45" s="12">
-        <v>140</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D58" s="5">
+        <v>140</v>
+      </c>
+      <c r="E58" s="1">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
-      <c r="F45" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="F58" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B59" s="2">
         <v>1000</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C59" s="2">
         <v>200</v>
       </c>
-      <c r="D46" s="11">
-        <v>140</v>
-      </c>
-      <c r="E46" s="10">
+      <c r="D59" s="2">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
-      <c r="F46" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="F59" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B60" s="2">
         <v>1600</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C60" s="2">
         <v>160</v>
       </c>
-      <c r="D47" s="11">
-        <v>140</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="D60" s="2">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1">
         <f t="shared" si="2"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F47" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="F60" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B61" s="2">
         <v>2300</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C61" s="2">
         <v>200</v>
       </c>
-      <c r="D48" s="11">
-        <v>140</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="D61" s="2">
+        <v>140</v>
+      </c>
+      <c r="E61" s="1">
         <f t="shared" si="2"/>
         <v>20.703933747412009</v>
       </c>
-      <c r="F48" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="F61" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B64" s="2">
         <v>600</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C64" s="2">
         <v>300</v>
       </c>
-      <c r="D51" s="11">
-        <v>140</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D64" s="2">
+        <v>140</v>
+      </c>
+      <c r="E64" s="1">
         <f t="shared" si="2"/>
         <v>119.04761904761905</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F64" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B65" s="2">
         <v>1400</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C65" s="2">
         <v>300</v>
       </c>
-      <c r="D52" s="11">
-        <v>140</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D65" s="2">
+        <v>140</v>
+      </c>
+      <c r="E65" s="1">
         <f t="shared" si="2"/>
         <v>51.020408163265309</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F65" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B66" s="2">
         <v>600</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C66" s="2">
         <v>240</v>
       </c>
-      <c r="D53" s="11">
-        <v>140</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D66" s="2">
+        <v>140</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="2"/>
         <v>95.238095238095241</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F66" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B67" s="2">
         <v>1400</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C67" s="2">
         <v>240</v>
       </c>
-      <c r="D54" s="11">
-        <v>140</v>
-      </c>
-      <c r="E54" s="10">
+      <c r="D67" s="2">
+        <v>140</v>
+      </c>
+      <c r="E67" s="1">
         <f t="shared" si="2"/>
         <v>40.816326530612244</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F67" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B68" s="5">
         <v>1200</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C68" s="5">
         <v>280</v>
       </c>
-      <c r="D55" s="12">
-        <v>140</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D68" s="5">
+        <v>140</v>
+      </c>
+      <c r="E68" s="1">
         <f t="shared" si="2"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F68" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B69" s="2">
         <v>1200</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C69" s="2">
         <v>280</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D69" s="2">
         <v>80</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E69" s="1">
         <f t="shared" si="2"/>
         <v>97.222222222222229</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F69" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B70" s="2">
         <v>1200</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C70" s="2">
         <v>200</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D70" s="2">
         <v>80</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E70" s="1">
         <f t="shared" si="2"/>
         <v>69.444444444444443</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F70" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B71" s="2">
         <v>600</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C71" s="2">
         <v>300</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D71" s="2">
         <v>80</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E71" s="1">
         <f t="shared" si="2"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F71" s="2">
         <v>60</v>
       </c>
     </row>
@@ -1694,1031 +2003,1331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FBB835-C63E-4F5F-A26D-C8EA18A1FB09}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <v>1200</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>280</v>
       </c>
-      <c r="D2" s="10">
-        <v>140</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
         <f t="shared" ref="E2:E16" si="0">C2/(B2*0.03*D2*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <v>1800</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>280</v>
       </c>
-      <c r="D3" s="10">
-        <v>140</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <v>1500</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>366.6</v>
       </c>
-      <c r="D4" s="10">
-        <v>140</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>58.190476190476197</v>
       </c>
-      <c r="F4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <v>1500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>197.12</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>34.823683261183255</v>
       </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>600</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <v>280</v>
       </c>
-      <c r="D6" s="10">
-        <v>140</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>111.11111111111111</v>
       </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="1">
         <v>900</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>193.4</v>
       </c>
-      <c r="D7" s="10">
-        <v>140</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>51.164021164021165</v>
       </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>900</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>251.1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="1">
         <v>82.88</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>112.21042471042472</v>
       </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="1">
         <v>1500</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="1">
         <v>193.4</v>
       </c>
-      <c r="D9" s="10">
-        <v>140</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="1">
+        <v>140</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>30.698412698412699</v>
       </c>
-      <c r="F9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="1">
         <v>251.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="1">
         <v>82.88</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>67.326254826254825</v>
       </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="1">
         <v>900</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="1">
         <v>366.6</v>
       </c>
-      <c r="D11" s="10">
-        <v>140</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1">
+        <v>140</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>96.984126984126988</v>
       </c>
-      <c r="F11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="1">
         <v>1200</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <v>337.7</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="1">
         <v>82.88</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>113.1823788073788</v>
       </c>
-      <c r="F12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="1">
         <v>900</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <v>197.12</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>58.039472101972102</v>
       </c>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="1">
         <v>1200</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>222.3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="1">
         <v>197.12</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>31.326095779220783</v>
       </c>
-      <c r="F14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>280</v>
       </c>
-      <c r="D15" s="10">
-        <v>140</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="1">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F15" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="1">
         <v>1200</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="10">
-        <v>140</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>280</v>
+      </c>
+      <c r="D17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C18" s="1">
+        <v>280</v>
+      </c>
+      <c r="D18" s="1">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1">
+        <v>58.190476189999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>34.823683260000003</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1">
+        <v>600</v>
+      </c>
+      <c r="C21" s="1">
+        <v>280</v>
+      </c>
+      <c r="D21" s="1">
+        <v>140</v>
+      </c>
+      <c r="E21" s="1">
+        <v>111.1111111</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1">
+        <v>900</v>
+      </c>
+      <c r="C22" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1">
+        <v>51.164021159999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1">
+        <v>900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E23" s="1">
+        <v>112.2104247</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.698412699999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E25" s="1">
+        <v>67.326254829999996</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1">
+        <v>900</v>
+      </c>
+      <c r="C26" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1">
+        <v>96.984126979999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>337.7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E27" s="1">
+        <v>113.1823788</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1">
+        <v>900</v>
+      </c>
+      <c r="C28" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>58.039472099999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C29" s="1">
+        <v>222.3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>31.326095779999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C30" s="1">
+        <v>280</v>
+      </c>
+      <c r="D30" s="1">
+        <v>140</v>
+      </c>
+      <c r="E30" s="1">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C31" s="1">
+        <v>280</v>
+      </c>
+      <c r="D31" s="1">
+        <v>140</v>
+      </c>
+      <c r="E31" s="1">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C32" s="1">
         <v>250</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D32" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="10">
-        <f>C17/(B17*0.03*D17*0.001)</f>
+      <c r="E32" s="1">
+        <f>C32/(B32*0.03*D32*0.001)</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="F17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B33" s="1">
         <v>1500</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C33" s="1">
         <v>250</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D33" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" ref="E18:E32" si="1">C18/(B18*0.03*D18*0.001)</f>
+      <c r="E33" s="1">
+        <f t="shared" ref="E33:E47" si="1">C33/(B33*0.03*D33*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="F33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B34" s="1">
         <v>600</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C34" s="1">
         <v>250</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D34" s="1">
         <v>100</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
         <v>138.88888888888889</v>
       </c>
-      <c r="F19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="F34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B35" s="1">
         <v>800</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C35" s="1">
         <v>300</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D35" s="1">
         <v>100</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F20" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B36" s="1">
         <v>800</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C36" s="1">
         <v>200</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D36" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="F21" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B37" s="1">
         <v>1000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C37" s="1">
         <v>300</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D37" s="1">
         <v>80</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F22" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B38" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C38" s="1">
         <v>300</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D38" s="1">
         <v>120</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="F23" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B39" s="1">
         <v>1500</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C39" s="1">
         <v>200</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D39" s="1">
         <v>120</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F24" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1">
         <v>2500</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C40" s="1">
         <v>150</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D40" s="1">
         <v>200</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B41" s="1">
         <v>2500</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C41" s="1">
         <v>100</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D41" s="1">
         <v>200</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E41" s="1">
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="F26" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B42" s="1">
         <v>2000</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C42" s="1">
         <v>200</v>
       </c>
-      <c r="D27" s="10">
-        <v>140</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D42" s="1">
+        <v>140</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="1"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F27" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B43" s="1">
         <v>2000</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C43" s="1">
         <v>100</v>
       </c>
-      <c r="D28" s="10">
-        <v>140</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D43" s="1">
+        <v>140</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="1"/>
         <v>11.904761904761905</v>
       </c>
-      <c r="F28" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B44" s="1">
         <v>1500</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C44" s="1">
         <v>150</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D44" s="1">
         <v>220</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E44" s="1">
         <f t="shared" si="1"/>
         <v>15.15151515151515</v>
       </c>
-      <c r="F29" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B45" s="1">
         <v>1500</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C45" s="1">
         <v>150</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D45" s="1">
         <v>240</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E45" s="1">
         <f t="shared" si="1"/>
         <v>13.888888888888888</v>
       </c>
-      <c r="F30" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B46" s="1">
         <v>1800</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C46" s="1">
         <v>200</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D46" s="1">
         <v>220</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E46" s="1">
         <f t="shared" si="1"/>
         <v>16.835016835016834</v>
       </c>
-      <c r="F31" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B47" s="1">
         <v>1800</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C47" s="1">
         <v>100</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D47" s="1">
         <v>220</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E47" s="1">
         <f t="shared" si="1"/>
         <v>8.4175084175084169</v>
       </c>
-      <c r="F32" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="10">
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1">
         <v>600</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C48" s="1">
         <v>250</v>
       </c>
-      <c r="D33" s="10">
-        <v>140</v>
-      </c>
-      <c r="E33" s="10">
-        <f>C33/(B33*0.03*D33*0.001)</f>
+      <c r="D48" s="1">
+        <v>140</v>
+      </c>
+      <c r="E48" s="1">
+        <f>C48/(B48*0.03*D48*0.001)</f>
         <v>99.206349206349202</v>
       </c>
-      <c r="F33" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B49" s="1">
         <v>600</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C49" s="1">
         <v>300</v>
       </c>
-      <c r="D34" s="10">
-        <v>140</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" ref="E34:E48" si="2">C34/(B34*0.03*D34*0.001)</f>
+      <c r="D49" s="1">
+        <v>140</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ref="E49:E63" si="2">C49/(B49*0.03*D49*0.001)</f>
         <v>119.04761904761905</v>
       </c>
-      <c r="F34" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B50" s="1">
         <v>600</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C50" s="1">
         <v>300</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D50" s="1">
         <v>100</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E50" s="1">
         <f t="shared" si="2"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="F35" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="F50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B51" s="1">
         <v>700</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C51" s="1">
         <v>292</v>
       </c>
-      <c r="D36" s="10">
-        <v>140</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D51" s="1">
+        <v>140</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="2"/>
         <v>99.319727891156461</v>
       </c>
-      <c r="F36" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="F51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B52" s="1">
         <v>1500</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C52" s="1">
         <v>300</v>
       </c>
-      <c r="D37" s="10">
-        <v>140</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D52" s="1">
+        <v>140</v>
+      </c>
+      <c r="E52" s="1">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
-      <c r="F37" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="F52" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B53" s="1">
         <v>1000</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C53" s="1">
         <v>200</v>
       </c>
-      <c r="D38" s="10">
-        <v>140</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D53" s="1">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
-      <c r="F38" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="F53" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B54" s="1">
         <v>1600</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C54" s="1">
         <v>160</v>
       </c>
-      <c r="D39" s="10">
-        <v>140</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D54" s="1">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1">
         <f t="shared" si="2"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F39" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B55" s="1">
         <v>2300</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C55" s="1">
         <v>200</v>
       </c>
-      <c r="D40" s="10">
-        <v>140</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D55" s="1">
+        <v>140</v>
+      </c>
+      <c r="E55" s="1">
         <f t="shared" si="2"/>
         <v>20.703933747412009</v>
       </c>
-      <c r="F40" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="F55" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B56" s="1">
         <v>600</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C56" s="1">
         <v>300</v>
       </c>
-      <c r="D41" s="10">
-        <v>140</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D56" s="1">
+        <v>140</v>
+      </c>
+      <c r="E56" s="1">
         <f t="shared" si="2"/>
         <v>119.04761904761905</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F56" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B57" s="1">
         <v>1400</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C57" s="1">
         <v>300</v>
       </c>
-      <c r="D42" s="10">
-        <v>140</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D57" s="1">
+        <v>140</v>
+      </c>
+      <c r="E57" s="1">
         <f t="shared" si="2"/>
         <v>51.020408163265309</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F57" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B58" s="1">
         <v>600</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C58" s="1">
         <v>240</v>
       </c>
-      <c r="D43" s="10">
-        <v>140</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D58" s="1">
+        <v>140</v>
+      </c>
+      <c r="E58" s="1">
         <f t="shared" si="2"/>
         <v>95.238095238095241</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F58" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B59" s="1">
         <v>1400</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C59" s="1">
         <v>240</v>
       </c>
-      <c r="D44" s="10">
-        <v>140</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D59" s="1">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1">
         <f t="shared" si="2"/>
         <v>40.816326530612244</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F59" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B60" s="1">
         <v>1200</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C60" s="1">
         <v>280</v>
       </c>
-      <c r="D45" s="10">
-        <v>140</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="D60" s="1">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1">
         <f t="shared" si="2"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F60" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B61" s="1">
         <v>1200</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C61" s="1">
         <v>280</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D61" s="1">
         <v>80</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E61" s="1">
         <f t="shared" si="2"/>
         <v>97.222222222222229</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F61" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B62" s="1">
         <v>1200</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C62" s="1">
         <v>200</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D62" s="1">
         <v>80</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E62" s="1">
         <f t="shared" si="2"/>
         <v>69.444444444444443</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B63" s="1">
         <v>600</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C63" s="1">
         <v>300</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D63" s="1">
         <v>80</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E63" s="1">
         <f t="shared" si="2"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F63" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,842 +3336,1157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655C83B2-75AD-4250-8EB4-9F390852A6E7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <v>1200</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>280</v>
       </c>
-      <c r="D2" s="10">
-        <v>140</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
         <f t="shared" ref="E2:E16" si="0">C2/(B2*0.03*D2*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F2" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <v>1800</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>280</v>
       </c>
-      <c r="D3" s="10">
-        <v>140</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <v>1500</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>366.6</v>
       </c>
-      <c r="D4" s="10">
-        <v>140</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="1">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>58.190476190476197</v>
       </c>
-      <c r="F4" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="1">
         <v>1500</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>197.12</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>34.823683261183255</v>
       </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>600</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <v>280</v>
       </c>
-      <c r="D6" s="10">
-        <v>140</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="1">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>111.11111111111111</v>
       </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="1">
         <v>900</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>193.4</v>
       </c>
-      <c r="D7" s="10">
-        <v>140</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>51.164021164021165</v>
       </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>900</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>251.1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="1">
         <v>82.88</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>112.21042471042472</v>
       </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="1">
         <v>1500</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="1">
         <v>193.4</v>
       </c>
-      <c r="D9" s="10">
-        <v>140</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="1">
+        <v>140</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>30.698412698412699</v>
       </c>
-      <c r="F9" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="1">
         <v>251.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="1">
         <v>82.88</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>67.326254826254825</v>
       </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="1">
         <v>900</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="1">
         <v>366.6</v>
       </c>
-      <c r="D11" s="10">
-        <v>140</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1">
+        <v>140</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>96.984126984126988</v>
       </c>
-      <c r="F11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="1">
         <v>1200</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <v>337.7</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="1">
         <v>82.88</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>113.1823788073788</v>
       </c>
-      <c r="F12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="1">
         <v>900</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <v>308.89999999999998</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="1">
         <v>197.12</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>58.039472101972102</v>
       </c>
-      <c r="F13" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="1">
         <v>1200</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>222.3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="1">
         <v>197.12</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>31.326095779220783</v>
       </c>
-      <c r="F14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="1">
         <v>1200</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>280</v>
       </c>
-      <c r="D15" s="10">
-        <v>140</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="1">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F15" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="1">
         <v>1200</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="10">
-        <v>140</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="1">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>280</v>
+      </c>
+      <c r="D17" s="1">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C18" s="1">
+        <v>280</v>
+      </c>
+      <c r="D18" s="1">
+        <v>140</v>
+      </c>
+      <c r="E18" s="1">
+        <v>37.037037040000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1">
+        <v>58.190476189999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>34.823683260000003</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1">
+        <v>600</v>
+      </c>
+      <c r="C21" s="1">
+        <v>280</v>
+      </c>
+      <c r="D21" s="1">
+        <v>140</v>
+      </c>
+      <c r="E21" s="1">
+        <v>111.1111111</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1">
+        <v>900</v>
+      </c>
+      <c r="C22" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1">
+        <v>51.164021159999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1">
+        <v>900</v>
+      </c>
+      <c r="C23" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E23" s="1">
+        <v>112.2104247</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="1">
+        <v>193.4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30.698412699999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>251.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E25" s="1">
+        <v>67.326254829999996</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1">
+        <v>900</v>
+      </c>
+      <c r="C26" s="1">
+        <v>366.6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1">
+        <v>96.984126979999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="1">
+        <v>337.7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>82.88</v>
+      </c>
+      <c r="E27" s="1">
+        <v>113.1823788</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1">
+        <v>900</v>
+      </c>
+      <c r="C28" s="1">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>58.039472099999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C29" s="1">
+        <v>222.3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>197.12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>31.326095779999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B30" s="1">
         <v>1000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C30" s="1">
         <v>250</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D30" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="10">
-        <f>C17/(B17*0.03*D17*0.001)</f>
+      <c r="E30" s="1">
+        <f>C30/(B30*0.03*D30*0.001)</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="F17" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B31" s="1">
         <v>1500</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C31" s="1">
         <v>250</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D31" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" ref="E18:E27" si="1">C18/(B18*0.03*D18*0.001)</f>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31:E40" si="1">C31/(B31*0.03*D31*0.001)</f>
         <v>55.555555555555557</v>
       </c>
-      <c r="F18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B32" s="1">
         <v>600</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C32" s="1">
         <v>250</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D32" s="1">
         <v>100</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E32" s="1">
         <f t="shared" si="1"/>
         <v>138.88888888888889</v>
       </c>
-      <c r="F19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B33" s="1">
         <v>800</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C33" s="1">
         <v>300</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D33" s="1">
         <v>100</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E33" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F20" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="F33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B34" s="1">
         <v>800</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C34" s="1">
         <v>200</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D34" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E34" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="F21" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="F34" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B35" s="1">
         <v>1000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C35" s="1">
         <v>300</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D35" s="1">
         <v>80</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E35" s="1">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="F22" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B36" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C36" s="1">
         <v>300</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D36" s="1">
         <v>120</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E36" s="1">
         <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="F23" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B37" s="1">
         <v>1500</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C37" s="1">
         <v>200</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D37" s="1">
         <v>120</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E37" s="1">
         <f t="shared" si="1"/>
         <v>37.037037037037038</v>
       </c>
-      <c r="F24" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B38" s="1">
         <v>2000</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C38" s="1">
         <v>200</v>
       </c>
-      <c r="D25" s="10">
-        <v>140</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D38" s="1">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F25" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B39" s="1">
         <v>1500</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C39" s="1">
         <v>150</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D39" s="1">
         <v>220</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>15.15151515151515</v>
       </c>
-      <c r="F26" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B40" s="1">
         <v>1500</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C40" s="1">
         <v>150</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D40" s="1">
         <v>240</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E40" s="1">
         <f t="shared" si="1"/>
         <v>13.888888888888888</v>
       </c>
-      <c r="F27" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B41" s="1">
         <v>600</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C41" s="1">
         <v>250</v>
       </c>
-      <c r="D28" s="10">
-        <v>140</v>
-      </c>
-      <c r="E28" s="10">
-        <f>C28/(B28*0.03*D28*0.001)</f>
+      <c r="D41" s="1">
+        <v>140</v>
+      </c>
+      <c r="E41" s="1">
+        <f>C41/(B41*0.03*D41*0.001)</f>
         <v>99.206349206349202</v>
       </c>
-      <c r="F28" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B42" s="1">
         <v>600</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C42" s="1">
         <v>300</v>
       </c>
-      <c r="D29" s="10">
-        <v>140</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" ref="E29:E39" si="2">C29/(B29*0.03*D29*0.001)</f>
+      <c r="D42" s="1">
+        <v>140</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42:E55" si="2">C42/(B42*0.03*D42*0.001)</f>
         <v>119.04761904761905</v>
       </c>
-      <c r="F29" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B43" s="1">
         <v>600</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C43" s="1">
         <v>300</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D43" s="1">
         <v>100</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E43" s="1">
         <f t="shared" si="2"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="F30" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B44" s="1">
         <v>700</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C44" s="1">
         <v>292</v>
       </c>
-      <c r="D31" s="10">
-        <v>140</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D44" s="1">
+        <v>140</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="2"/>
         <v>99.319727891156461</v>
       </c>
-      <c r="F31" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B45" s="1">
         <v>1500</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C45" s="1">
         <v>300</v>
       </c>
-      <c r="D32" s="10">
-        <v>140</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D45" s="1">
+        <v>140</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="2"/>
         <v>47.61904761904762</v>
       </c>
-      <c r="F32" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B46" s="1">
         <v>1600</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C46" s="1">
         <v>160</v>
       </c>
-      <c r="D33" s="10">
-        <v>140</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D46" s="1">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="2"/>
         <v>23.80952380952381</v>
       </c>
-      <c r="F33" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B47" s="1">
         <v>2300</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C47" s="1">
         <v>200</v>
       </c>
-      <c r="D34" s="10">
-        <v>140</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D47" s="1">
+        <v>140</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="2"/>
         <v>20.703933747412009</v>
       </c>
-      <c r="F34" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B48" s="1">
         <v>600</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C48" s="1">
         <v>300</v>
       </c>
-      <c r="D35" s="10">
-        <v>140</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D48" s="1">
+        <v>140</v>
+      </c>
+      <c r="E48" s="1">
         <f t="shared" si="2"/>
         <v>119.04761904761905</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F48" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B49" s="1">
         <v>1400</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C49" s="1">
         <v>300</v>
       </c>
-      <c r="D36" s="10">
-        <v>140</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D49" s="1">
+        <v>140</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="2"/>
         <v>51.020408163265309</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F49" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B50" s="1">
         <v>600</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C50" s="1">
         <v>240</v>
       </c>
-      <c r="D37" s="10">
-        <v>140</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D50" s="1">
+        <v>140</v>
+      </c>
+      <c r="E50" s="1">
         <f t="shared" si="2"/>
         <v>95.238095238095241</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F50" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B51" s="1">
         <v>1400</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C51" s="1">
         <v>240</v>
       </c>
-      <c r="D38" s="10">
-        <v>140</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D51" s="1">
+        <v>140</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="2"/>
         <v>40.816326530612244</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F51" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C52" s="1">
+        <v>280</v>
+      </c>
+      <c r="D52" s="1">
+        <v>140</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="F52" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C53" s="1">
+        <v>280</v>
+      </c>
+      <c r="D53" s="1">
+        <v>80</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="2"/>
+        <v>97.222222222222229</v>
+      </c>
+      <c r="F53" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C54" s="1">
+        <v>200</v>
+      </c>
+      <c r="D54" s="1">
+        <v>80</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="F54" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B55" s="1">
         <v>600</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C55" s="1">
         <v>300</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D55" s="1">
         <v>80</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E55" s="1">
         <f t="shared" si="2"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F55" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
